--- a/src/main/resources/ru/avem/kspem/app/protocolGPT.xlsx
+++ b/src/main/resources/ru/avem/kspem/app/protocolGPT.xlsx
@@ -20,15 +20,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="93">
+  <si>
+    <t xml:space="preserve">ООО «Авиаагрегат-Н»</t>
+  </si>
   <si>
     <t xml:space="preserve">г. Новочеркасск</t>
   </si>
   <si>
-    <t xml:space="preserve">АИЕЛ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Зав. № </t>
+    <t xml:space="preserve">АИЕЛ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">441462.207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Зав. №  </t>
   </si>
   <si>
     <t xml:space="preserve">Протокол испытания №  </t>
@@ -244,19 +250,19 @@
     <t xml:space="preserve">t воздух., ℃</t>
   </si>
   <si>
-    <t xml:space="preserve">#dptNuOV#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#dptNiOV#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#dptNuN#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#dptNiN#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#dptNTAmb#</t>
+    <t xml:space="preserve">#gptNuOV#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#gptNiOV#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#gptNuN#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#gptNiN#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#gptNTAmb#</t>
   </si>
   <si>
     <t xml:space="preserve">t ОИ., ℃</t>
@@ -265,19 +271,19 @@
     <t xml:space="preserve">P1, кВт</t>
   </si>
   <si>
-    <t xml:space="preserve">#dptNTOI#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#dptNN#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#dptNP1#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#dptNTime#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#dptNResult#</t>
+    <t xml:space="preserve">#gptNTOI#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#gptNN#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#gptNP1#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#gptNTime#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#gptNResult#</t>
   </si>
   <si>
     <t xml:space="preserve">Рекомендации:</t>
@@ -848,6 +854,48 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>858240</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>310680</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="Изображение 1" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="1079640" cy="1079640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -855,11 +903,11 @@
   </sheetPr>
   <dimension ref="A1:AMJ54"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="55" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I12" activeCellId="0" sqref="I12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A16" colorId="64" zoomScale="85" zoomScaleNormal="55" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F27" activeCellId="0" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.01953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.0546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="3.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="2" style="1" width="17.71"/>
@@ -872,12 +920,14 @@
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="3"/>
+      <c r="D1" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="4" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
@@ -889,11 +939,13 @@
       <c r="C2" s="2"/>
       <c r="D2" s="6"/>
       <c r="E2" s="7" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
-      <c r="H2" s="8"/>
+      <c r="H2" s="8" t="s">
+        <v>3</v>
+      </c>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
       <c r="K2" s="9"/>
@@ -905,10 +957,12 @@
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
       <c r="F3" s="7" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G3" s="7"/>
-      <c r="H3" s="8"/>
+      <c r="H3" s="8" t="n">
+        <v>211060143</v>
+      </c>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
       <c r="K3" s="9"/>
@@ -931,11 +985,11 @@
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="12" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
@@ -958,11 +1012,11 @@
     <row r="7" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="14"/>
       <c r="B7" s="11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="17" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="18"/>
@@ -975,11 +1029,11 @@
     <row r="8" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="14"/>
       <c r="B8" s="11" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="17" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E8" s="18"/>
       <c r="F8" s="18"/>
@@ -992,11 +1046,11 @@
     <row r="9" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="14"/>
       <c r="B9" s="11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="17" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E9" s="18"/>
       <c r="F9" s="18"/>
@@ -1034,12 +1088,12 @@
       <c r="D11" s="24"/>
       <c r="E11" s="24"/>
       <c r="F11" s="25" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G11" s="25"/>
       <c r="H11" s="25"/>
       <c r="I11" s="25" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J11" s="21"/>
       <c r="K11" s="22"/>
@@ -1062,7 +1116,7 @@
       <c r="G12" s="25"/>
       <c r="H12" s="25"/>
       <c r="I12" s="25" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J12" s="21"/>
       <c r="K12" s="22"/>
@@ -1099,7 +1153,7 @@
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="26"/>
       <c r="B14" s="27" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C14" s="27"/>
       <c r="D14" s="27"/>
@@ -1233,25 +1287,25 @@
     <row r="16" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="30"/>
       <c r="B16" s="25" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G16" s="25" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H16" s="25" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I16" s="34"/>
       <c r="J16" s="35"/>
@@ -1313,25 +1367,25 @@
     <row r="17" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="30"/>
       <c r="B17" s="25" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E17" s="25" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G17" s="36" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H17" s="25" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I17" s="34"/>
       <c r="J17" s="35"/>
@@ -1525,7 +1579,7 @@
     <row r="20" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="26"/>
       <c r="B20" s="40" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C20" s="40"/>
       <c r="D20" s="40"/>
@@ -1660,22 +1714,22 @@
       <c r="A22" s="30"/>
       <c r="B22" s="0"/>
       <c r="C22" s="25" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D22" s="42" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E22" s="42" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F22" s="42" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G22" s="42" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H22" s="43" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I22" s="43"/>
       <c r="J22" s="34"/>
@@ -1737,25 +1791,25 @@
     <row r="23" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="30"/>
       <c r="B23" s="25" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D23" s="42" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E23" s="42" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F23" s="42" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G23" s="42" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H23" s="44" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I23" s="44"/>
       <c r="J23" s="34"/>
@@ -1817,25 +1871,25 @@
     <row r="24" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="30"/>
       <c r="B24" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="F24" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="G24" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="D24" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="E24" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="F24" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="G24" s="42" t="s">
-        <v>41</v>
-      </c>
       <c r="H24" s="44" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I24" s="44"/>
       <c r="J24" s="35"/>
@@ -1897,25 +1951,25 @@
     <row r="25" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="30"/>
       <c r="B25" s="25" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D25" s="42" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E25" s="42" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F25" s="42" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G25" s="42" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H25" s="44" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I25" s="44"/>
       <c r="J25" s="35"/>
@@ -2109,7 +2163,7 @@
     <row r="28" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="26"/>
       <c r="B28" s="40" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C28" s="40"/>
       <c r="D28" s="40"/>
@@ -2243,18 +2297,18 @@
     <row r="30" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="30"/>
       <c r="B30" s="25" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C30" s="25"/>
       <c r="D30" s="25" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E30" s="25"/>
       <c r="F30" s="45" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G30" s="45" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H30" s="45"/>
       <c r="I30" s="34"/>
@@ -2317,18 +2371,18 @@
     <row r="31" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="30"/>
       <c r="B31" s="25" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C31" s="25"/>
       <c r="D31" s="25" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E31" s="25"/>
       <c r="F31" s="25" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G31" s="25" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H31" s="25"/>
       <c r="I31" s="34"/>
@@ -2523,7 +2577,7 @@
     <row r="34" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="26"/>
       <c r="B34" s="40" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C34" s="40"/>
       <c r="D34" s="40"/>
@@ -2657,17 +2711,17 @@
     <row r="36" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="30"/>
       <c r="B36" s="25" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C36" s="25"/>
       <c r="D36" s="25"/>
       <c r="E36" s="25" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F36" s="25"/>
       <c r="G36" s="25"/>
       <c r="H36" s="25" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I36" s="25"/>
       <c r="J36" s="35"/>
@@ -2729,17 +2783,17 @@
     <row r="37" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="30"/>
       <c r="B37" s="25" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C37" s="25"/>
       <c r="D37" s="25"/>
       <c r="E37" s="25" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F37" s="25"/>
       <c r="G37" s="25"/>
       <c r="H37" s="25" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I37" s="25"/>
       <c r="J37" s="35"/>
@@ -2933,7 +2987,7 @@
     <row r="40" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="26"/>
       <c r="B40" s="27" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C40" s="27"/>
       <c r="D40" s="27"/>
@@ -3068,19 +3122,19 @@
       <c r="A42" s="30"/>
       <c r="B42" s="34"/>
       <c r="C42" s="25" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D42" s="25" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E42" s="25" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F42" s="25" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G42" s="25" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H42" s="34"/>
       <c r="I42" s="34"/>
@@ -3144,19 +3198,19 @@
       <c r="A43" s="30"/>
       <c r="B43" s="34"/>
       <c r="C43" s="25" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D43" s="25" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E43" s="25" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F43" s="25" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G43" s="25" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H43" s="34"/>
       <c r="I43" s="34"/>
@@ -3286,19 +3340,19 @@
       <c r="A45" s="30"/>
       <c r="B45" s="34"/>
       <c r="C45" s="25" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D45" s="25" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E45" s="25" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F45" s="25" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G45" s="43" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H45" s="34"/>
       <c r="I45" s="34"/>
@@ -3362,19 +3416,19 @@
       <c r="A46" s="30"/>
       <c r="B46" s="34"/>
       <c r="C46" s="25" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D46" s="25" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E46" s="25" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F46" s="25" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G46" s="44" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H46" s="34"/>
       <c r="I46" s="34"/>
@@ -3569,7 +3623,7 @@
     <row r="49" s="23" customFormat="true" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="1"/>
       <c r="B49" s="49" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C49" s="49"/>
       <c r="D49" s="50"/>
@@ -3676,19 +3730,19 @@
     <row r="54" s="23" customFormat="true" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="1"/>
       <c r="B54" s="52" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C54" s="52"/>
       <c r="D54" s="53" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E54" s="53"/>
       <c r="F54" s="54"/>
       <c r="G54" s="52" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H54" s="50" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="I54" s="50"/>
       <c r="J54" s="49"/>
@@ -3753,10 +3807,11 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.590277777777778" top="0.590277777777778" bottom="0.590277777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="51" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="51" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>